--- a/최종 전처리 데이터 모음/2017/2017년 기준 최종 전처리 산업연관표(수입거래표).xlsx
+++ b/최종 전처리 데이터 모음/2017/2017년 기준 최종 전처리 산업연관표(수입거래표).xlsx
@@ -667,7 +667,9 @@
       <c r="W2" t="n">
         <v>3074226</v>
       </c>
-      <c r="X2" t="inlineStr"/>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
       <c r="Y2" t="n">
         <v>39051</v>
       </c>
@@ -677,8 +679,12 @@
       <c r="AA2" t="n">
         <v>-69221</v>
       </c>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
       <c r="AD2" t="n">
         <v>3045734</v>
       </c>
@@ -761,14 +767,24 @@
       <c r="W3" t="n">
         <v>9999</v>
       </c>
-      <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0</v>
+      </c>
       <c r="AA3" t="n">
         <v>572387</v>
       </c>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+      <c r="AB3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
       <c r="AD3" t="n">
         <v>582386</v>
       </c>
@@ -851,7 +867,9 @@
       <c r="W4" t="n">
         <v>64116672.39</v>
       </c>
-      <c r="X4" t="inlineStr"/>
+      <c r="X4" t="n">
+        <v>0</v>
+      </c>
       <c r="Y4" t="n">
         <v>57640245.39</v>
       </c>
@@ -861,7 +879,9 @@
       <c r="AA4" t="n">
         <v>1171817.445</v>
       </c>
-      <c r="AB4" t="inlineStr"/>
+      <c r="AB4" t="n">
+        <v>604775</v>
+      </c>
       <c r="AC4" t="n">
         <v>3672736.24</v>
       </c>
@@ -947,12 +967,24 @@
       <c r="W5" t="n">
         <v>74851</v>
       </c>
-      <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
       <c r="AD5" t="n">
         <v>74851</v>
       </c>
@@ -1032,15 +1064,27 @@
       <c r="V6" t="n">
         <v>4918</v>
       </c>
-      <c r="W6" t="inlineStr"/>
-      <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
+      <c r="W6" t="n">
+        <v>0</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0</v>
+      </c>
       <c r="Z6" t="n">
         <v>2277</v>
       </c>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+      <c r="AA6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
       <c r="AD6" t="n">
         <v>2277</v>
       </c>
@@ -1123,12 +1167,24 @@
       <c r="W7" t="n">
         <v>7563606</v>
       </c>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
       <c r="AD7" t="n">
         <v>7563606</v>
       </c>
@@ -1211,12 +1267,24 @@
       <c r="W8" t="n">
         <v>15717746</v>
       </c>
-      <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
+      <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
       <c r="AD8" t="n">
         <v>15717746</v>
       </c>
@@ -1299,14 +1367,24 @@
       <c r="W9" t="n">
         <v>1432029.6232</v>
       </c>
-      <c r="X9" t="inlineStr"/>
+      <c r="X9" t="n">
+        <v>0</v>
+      </c>
       <c r="Y9" t="n">
         <v>489341.2503000001</v>
       </c>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
+      <c r="Z9" t="n">
+        <v>5906.140600000001</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-241.8518</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
       <c r="AD9" t="n">
         <v>1927035.1623</v>
       </c>
@@ -1389,12 +1467,24 @@
       <c r="W10" t="n">
         <v>830877</v>
       </c>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
+      <c r="X10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
       <c r="AD10" t="n">
         <v>830877</v>
       </c>
@@ -1477,12 +1567,24 @@
       <c r="W11" t="n">
         <v>472587</v>
       </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
+      <c r="X11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
       <c r="AD11" t="n">
         <v>472587</v>
       </c>
@@ -1565,12 +1667,24 @@
       <c r="W12" t="n">
         <v>355515.355</v>
       </c>
-      <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>2770696.744</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>115981.804</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
       <c r="AD12" t="n">
         <v>3242193.903</v>
       </c>
@@ -1653,12 +1767,24 @@
       <c r="W13" t="n">
         <v>3804</v>
       </c>
-      <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
       <c r="AD13" t="n">
         <v>3804</v>
       </c>
@@ -1741,12 +1867,24 @@
       <c r="W14" t="n">
         <v>2392770</v>
       </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
       <c r="AD14" t="n">
         <v>2392770</v>
       </c>
@@ -1829,12 +1967,24 @@
       <c r="W15" t="n">
         <v>560015</v>
       </c>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
       <c r="AD15" t="n">
         <v>560015</v>
       </c>
@@ -1914,14 +2064,30 @@
       <c r="V16" t="n">
         <v>691260.2924</v>
       </c>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
+      <c r="W16" t="n">
+        <v>5537291</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>87512</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>24836</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>5649639</v>
+      </c>
       <c r="AE16" t="n">
         <v>6340899.2924</v>
       </c>
@@ -2001,7 +2167,9 @@
       <c r="W17" t="n">
         <v>475546.61</v>
       </c>
-      <c r="X17" t="inlineStr"/>
+      <c r="X17" t="n">
+        <v>0</v>
+      </c>
       <c r="Y17" t="n">
         <v>3951417.61</v>
       </c>
@@ -2011,7 +2179,9 @@
       <c r="AA17" t="n">
         <v>20092.555</v>
       </c>
-      <c r="AB17" t="inlineStr"/>
+      <c r="AB17" t="n">
+        <v>0</v>
+      </c>
       <c r="AC17" t="n">
         <v>361.76</v>
       </c>
@@ -2094,14 +2264,30 @@
       <c r="V18" t="n">
         <v>1658045.6568</v>
       </c>
-      <c r="W18" t="inlineStr"/>
-      <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
       <c r="AE18" t="n">
         <v>1658045.6568</v>
       </c>
@@ -2181,7 +2367,9 @@
       <c r="W19" t="n">
         <v>355179.3768</v>
       </c>
-      <c r="X19" t="inlineStr"/>
+      <c r="X19" t="n">
+        <v>0</v>
+      </c>
       <c r="Y19" t="n">
         <v>631980.7496999999</v>
       </c>
@@ -2191,8 +2379,12 @@
       <c r="AA19" t="n">
         <v>-324.1482</v>
       </c>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
+      <c r="AB19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
       <c r="AD19" t="n">
         <v>994751.8377</v>
       </c>
@@ -2275,16 +2467,24 @@
       <c r="W20" t="n">
         <v>79.64500000000001</v>
       </c>
-      <c r="X20" t="inlineStr"/>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
       <c r="Y20" t="n">
         <v>2442279.256</v>
       </c>
       <c r="Z20" t="n">
         <v>102234.196</v>
       </c>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
       <c r="AD20" t="n">
         <v>2544593.097</v>
       </c>
@@ -2332,7 +2532,7 @@
         <v>19.546</v>
       </c>
       <c r="L21" t="n">
-        <v>5502.8801781</v>
+        <v>5502.880178099999</v>
       </c>
       <c r="M21" t="n">
         <v>3775.3099</v>
@@ -2364,14 +2564,30 @@
       <c r="V21" t="n">
         <v>70963.70759999999</v>
       </c>
-      <c r="W21" t="inlineStr"/>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
       <c r="AE21" t="n">
         <v>70963.70759999999</v>
       </c>
@@ -2451,7 +2667,9 @@
       <c r="W22" t="n">
         <v>102972795</v>
       </c>
-      <c r="X22" t="inlineStr"/>
+      <c r="X22" t="n">
+        <v>0</v>
+      </c>
       <c r="Y22" t="n">
         <v>68052524</v>
       </c>
@@ -2546,14 +2764,30 @@
       <c r="V23" t="n">
         <v>1549626.3432</v>
       </c>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
+      <c r="W23" t="n">
+        <v>0</v>
+      </c>
+      <c r="X23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>0</v>
+      </c>
       <c r="AE23" t="n">
         <v>1549626.3432</v>
       </c>
